--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_01_02 13_13_32.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_01_02 13_13_32.xlsx
@@ -7347,13 +7347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB6CA65-CF2D-475C-BD44-3BF61F65C6B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED4B437-F80F-4D9A-8057-F4625135F324}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BBC8971-7FEF-44EF-8E01-157127A88772}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FAA0820-8A18-470D-A488-9FD0C2C90165}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A711688-0A7A-48F4-B6DE-9438785692CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D26B330-3463-4AE5-9433-5CDF561759F1}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_01_02 13_13_32.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_01_02 13_13_32.xlsx
@@ -7347,13 +7347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED4B437-F80F-4D9A-8057-F4625135F324}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B6FDE0-EFCE-46D7-8D46-4A940C169A1B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FAA0820-8A18-470D-A488-9FD0C2C90165}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E239AB39-7AF1-47BA-B553-9DA6B94CD12F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D26B330-3463-4AE5-9433-5CDF561759F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCBBA907-1862-4B63-999A-0A498A79FDED}"/>
 </file>